--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2580523.177788602</v>
+        <v>-2583121.972759263</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>246.3632743952089</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.79114274355583</v>
+        <v>410.9811492522526</v>
       </c>
       <c r="H2" t="n">
         <v>295.2163363185219</v>
       </c>
       <c r="I2" t="n">
-        <v>43.86785806562895</v>
+        <v>43.86785806562898</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.5418770458107</v>
+        <v>110.5418770458108</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1780969433633</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.9999258468059</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.90394266080568</v>
       </c>
       <c r="I3" t="n">
-        <v>19.91189527285529</v>
+        <v>19.9118952728553</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.116953416516708</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>128.73407520327</v>
       </c>
       <c r="T3" t="n">
-        <v>190.8447241770833</v>
+        <v>140.7484263924939</v>
       </c>
       <c r="U3" t="n">
         <v>225.7892601356363</v>
       </c>
       <c r="V3" t="n">
-        <v>180.5873359483208</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0524636397191</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9920054808265</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>97.15402040370427</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>266.3122887997312</v>
+        <v>286.2132921354687</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>71.42227744803357</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>329.678323903483</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>221.7223713192626</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U6" t="n">
         <v>225.7871683969286</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>59.87310898738125</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>84.42672630883131</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>407.0181781096213</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>209.6931219609846</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>123.7966780634075</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>126.6594788029394</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701339</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766825</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>18.50276072357073</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>73.95046331124203</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>100.9025715636459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>93.07916359105445</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>140.3829797864963</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>94.3037379180827</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428054</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892442</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922689</v>
+        <v>139.5115415340506</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462247</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>148.8796904206621</v>
+        <v>217.405450327288</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,10 +2713,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.330825526172</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
@@ -2725,7 +2725,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,10 +2950,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261731</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2962,7 +2962,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3187,10 +3187,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808158</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541843</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972057</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1573.913130657774</v>
+        <v>1440.519059153693</v>
       </c>
       <c r="C2" t="n">
-        <v>1204.950613717362</v>
+        <v>1071.556542213281</v>
       </c>
       <c r="D2" t="n">
-        <v>846.6849151106119</v>
+        <v>822.7047498948893</v>
       </c>
       <c r="E2" t="n">
-        <v>460.8966625123676</v>
+        <v>822.7047498948893</v>
       </c>
       <c r="F2" t="n">
-        <v>460.8966625123676</v>
+        <v>822.7047498948893</v>
       </c>
       <c r="G2" t="n">
-        <v>407.572275902715</v>
+        <v>407.5722759027149</v>
       </c>
       <c r="H2" t="n">
-        <v>109.3739563890564</v>
+        <v>109.3739563890565</v>
       </c>
       <c r="I2" t="n">
-        <v>65.06298864599688</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="J2" t="n">
         <v>248.9490509731313</v>
       </c>
       <c r="K2" t="n">
-        <v>575.2851091032921</v>
+        <v>575.2851091032917</v>
       </c>
       <c r="L2" t="n">
-        <v>1017.035607679884</v>
+        <v>1017.035607679883</v>
       </c>
       <c r="M2" t="n">
         <v>1540.237590999099</v>
       </c>
       <c r="N2" t="n">
-        <v>2076.519337778085</v>
+        <v>2076.519337778084</v>
       </c>
       <c r="O2" t="n">
-        <v>2569.579722854079</v>
+        <v>2569.579722854077</v>
       </c>
       <c r="P2" t="n">
         <v>2955.894353302313</v>
       </c>
       <c r="Q2" t="n">
-        <v>3197.827805704726</v>
+        <v>3197.827805704725</v>
       </c>
       <c r="R2" t="n">
-        <v>3253.149432299844</v>
+        <v>3253.149432299842</v>
       </c>
       <c r="S2" t="n">
-        <v>3141.490970637409</v>
+        <v>3141.490970637407</v>
       </c>
       <c r="T2" t="n">
-        <v>2935.250468674416</v>
+        <v>3141.490970637407</v>
       </c>
       <c r="U2" t="n">
-        <v>2681.715190041278</v>
+        <v>2887.95569200427</v>
       </c>
       <c r="V2" t="n">
-        <v>2350.652302697707</v>
+        <v>2556.892804660699</v>
       </c>
       <c r="W2" t="n">
-        <v>2350.652302697707</v>
+        <v>2204.124149390585</v>
       </c>
       <c r="X2" t="n">
-        <v>2350.652302697707</v>
+        <v>1830.658391129505</v>
       </c>
       <c r="Y2" t="n">
-        <v>1960.512970721896</v>
+        <v>1440.519059153693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1679.658324549949</v>
+        <v>941.5427451404066</v>
       </c>
       <c r="C3" t="n">
-        <v>1505.205295268822</v>
+        <v>767.0897158592796</v>
       </c>
       <c r="D3" t="n">
-        <v>1356.270885607571</v>
+        <v>618.1553061980285</v>
       </c>
       <c r="E3" t="n">
-        <v>1197.033430602115</v>
+        <v>458.9178511925729</v>
       </c>
       <c r="F3" t="n">
-        <v>1050.498872629</v>
+        <v>312.383293219458</v>
       </c>
       <c r="G3" t="n">
-        <v>914.1036568774189</v>
+        <v>175.9880774678766</v>
       </c>
       <c r="H3" t="n">
-        <v>823.2915935836755</v>
+        <v>85.17601417413351</v>
       </c>
       <c r="I3" t="n">
-        <v>803.1785680555389</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="J3" t="n">
-        <v>893.8820000749465</v>
+        <v>155.7664206654042</v>
       </c>
       <c r="K3" t="n">
-        <v>1127.063437151133</v>
+        <v>388.9478577415905</v>
       </c>
       <c r="L3" t="n">
-        <v>1486.927196831876</v>
+        <v>748.8116174223335</v>
       </c>
       <c r="M3" t="n">
-        <v>1926.228098874591</v>
+        <v>1188.112519465048</v>
       </c>
       <c r="N3" t="n">
-        <v>2391.564633529493</v>
+        <v>1653.44905411995</v>
       </c>
       <c r="O3" t="n">
-        <v>2795.03685666879</v>
+        <v>2056.921277259247</v>
       </c>
       <c r="P3" t="n">
-        <v>3099.525820234326</v>
+        <v>2361.410240824783</v>
       </c>
       <c r="Q3" t="n">
-        <v>3253.149432299844</v>
+        <v>2515.0338528903</v>
       </c>
       <c r="R3" t="n">
-        <v>3251.011095515483</v>
+        <v>2515.0338528903</v>
       </c>
       <c r="S3" t="n">
-        <v>3120.976676118241</v>
+        <v>2384.999433493057</v>
       </c>
       <c r="T3" t="n">
-        <v>2928.204227454521</v>
+        <v>2242.829305823872</v>
       </c>
       <c r="U3" t="n">
-        <v>2700.134267721555</v>
+        <v>2014.759346090906</v>
       </c>
       <c r="V3" t="n">
-        <v>2517.722817268706</v>
+        <v>1779.607237859163</v>
       </c>
       <c r="W3" t="n">
-        <v>2263.485460540504</v>
+        <v>1525.369881130961</v>
       </c>
       <c r="X3" t="n">
-        <v>2055.633960334971</v>
+        <v>1317.518380925429</v>
       </c>
       <c r="Y3" t="n">
-        <v>1847.873661570017</v>
+        <v>1109.758082160475</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.2746427340587</v>
+        <v>532.0289045686326</v>
       </c>
       <c r="C4" t="n">
-        <v>624.2746427340587</v>
+        <v>363.0927216407257</v>
       </c>
       <c r="D4" t="n">
-        <v>624.2746427340587</v>
+        <v>212.97608222839</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2746427340587</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="F4" t="n">
-        <v>477.3846952361483</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="G4" t="n">
-        <v>309.6549339839068</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="H4" t="n">
-        <v>163.1983627911527</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="I4" t="n">
-        <v>65.06298864599688</v>
+        <v>65.06298864599685</v>
       </c>
       <c r="J4" t="n">
-        <v>75.02005212274275</v>
+        <v>75.02005212274264</v>
       </c>
       <c r="K4" t="n">
-        <v>170.2650045033535</v>
+        <v>170.2650045033533</v>
       </c>
       <c r="L4" t="n">
-        <v>322.0515495633496</v>
+        <v>322.0515495633493</v>
       </c>
       <c r="M4" t="n">
-        <v>485.3474622992789</v>
+        <v>485.3474622992785</v>
       </c>
       <c r="N4" t="n">
-        <v>652.6180891206071</v>
+        <v>652.6180891206066</v>
       </c>
       <c r="O4" t="n">
-        <v>786.8064976079672</v>
+        <v>786.8064976079664</v>
       </c>
       <c r="P4" t="n">
-        <v>882.565891698328</v>
+        <v>882.5658916983273</v>
       </c>
       <c r="Q4" t="n">
-        <v>893.2769546529792</v>
+        <v>893.2769546529784</v>
       </c>
       <c r="R4" t="n">
-        <v>893.2769546529792</v>
+        <v>893.2769546529784</v>
       </c>
       <c r="S4" t="n">
-        <v>893.2769546529792</v>
+        <v>893.2769546529784</v>
       </c>
       <c r="T4" t="n">
-        <v>893.2769546529792</v>
+        <v>893.2769546529784</v>
       </c>
       <c r="U4" t="n">
-        <v>624.2746427340587</v>
+        <v>604.1726191626059</v>
       </c>
       <c r="V4" t="n">
-        <v>624.2746427340587</v>
+        <v>604.1726191626059</v>
       </c>
       <c r="W4" t="n">
-        <v>624.2746427340587</v>
+        <v>604.1726191626059</v>
       </c>
       <c r="X4" t="n">
-        <v>624.2746427340587</v>
+        <v>604.1726191626059</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.2746427340587</v>
+        <v>532.0289045686326</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1917.382287315189</v>
+        <v>1548.766690866869</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.419770374778</v>
+        <v>1179.804173926457</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>821.5384753197065</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,16 +4577,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X5" t="n">
-        <v>2307.521619291001</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="Y5" t="n">
-        <v>1917.382287315189</v>
+        <v>1935.36653093099</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,13 +4662,13 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
         <v>2435.471302619336</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>364.5418494269122</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>518.445961844415</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>631.469835781224</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>546.190314257152</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>546.190314257152</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2001.643962205199</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C8" t="n">
-        <v>1632.681445264787</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="D8" t="n">
-        <v>1274.415746658037</v>
+        <v>1490.169958279064</v>
       </c>
       <c r="E8" t="n">
-        <v>888.6274940597923</v>
+        <v>1104.381705680819</v>
       </c>
       <c r="F8" t="n">
-        <v>477.6415892701847</v>
+        <v>693.3958008912118</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>278.3233507362083</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609169</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539435</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.24380226932</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.24380226932</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y8" t="n">
-        <v>2388.24380226932</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>508.4085425014808</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="C10" t="n">
-        <v>339.472359573574</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>489.2540249902034</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>341.3409314078103</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>194.4509839099</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>729.201121645011</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>729.201121645011</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>729.201121645011</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V10" t="n">
-        <v>729.201121645011</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="W10" t="n">
-        <v>729.201121645011</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="X10" t="n">
-        <v>729.201121645011</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="Y10" t="n">
-        <v>508.4085425014808</v>
+        <v>639.3706644025392</v>
       </c>
     </row>
     <row r="11">
@@ -5027,52 +5027,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.270770777032</v>
+        <v>513.853600740068</v>
       </c>
       <c r="C13" t="n">
-        <v>634.3345878491251</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>484.2179484367894</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>336.3048548543963</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038317</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797717</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138379</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072717</v>
+        <v>695.5020655703078</v>
       </c>
     </row>
     <row r="14">
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>632.7243904253734</v>
+        <v>734.6461798836016</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253734</v>
+        <v>565.7099969556947</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>565.7099969556947</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>417.7969033733016</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138413</v>
       </c>
       <c r="Y16" t="n">
-        <v>814.3728552556131</v>
+        <v>916.2946447138413</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311992</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7557007032924</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>482.6390612909566</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>334.7259677085635</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>187.8360202106531</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614389</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400702</v>
+        <v>802.9288273958732</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121633</v>
+        <v>633.9926444679663</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121633</v>
+        <v>483.8760050556306</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121633</v>
+        <v>335.9629114732375</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121633</v>
+        <v>189.0729639753282</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270431</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.35942226766</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138406</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703099</v>
+        <v>984.5772922261129</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,19 +5984,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.864119183223</v>
+        <v>695.5020655703107</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553161</v>
+        <v>526.5658826424039</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429804</v>
+        <v>376.4492432300682</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429804</v>
+        <v>376.4492432300682</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429804</v>
+        <v>376.4492432300682</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057746</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,13 +6148,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038337</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2046.67901981013</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1757.603793154328</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1502.919304948441</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>985.5125840134627</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134627</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6406,7 +6406,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
         <v>2438.456847547834</v>
@@ -6415,7 +6415,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
@@ -6427,7 +6427,7 @@
         <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6455,49 +6455,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6646,13 +6646,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6661,7 +6661,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6692,46 +6692,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,19 +6880,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,10 +7108,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,13 +7248,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7336,22 +7336,22 @@
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7567,19 +7567,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380723</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311317</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382518</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7825,28 +7825,28 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>108.319767225474</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>358.1900065086967</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.1780969433633</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22671,19 +22671,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.116953416516736</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>50.09629778458935</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>52.21325120110447</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0524636397191</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.9920054808266</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>97.15402040370428</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.13067551456429</v>
+        <v>90.1306755145643</v>
       </c>
       <c r="S4" t="n">
-        <v>190.2335559203903</v>
+        <v>190.2335559203904</v>
       </c>
       <c r="T4" t="n">
         <v>219.6628404482119</v>
       </c>
       <c r="U4" t="n">
-        <v>19.90100333573753</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>147.1623759040612</v>
       </c>
     </row>
     <row r="5">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>57.22910392194532</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>126.9182872993605</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>71.47058471168921</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.6820817884489</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>72.44497470121439</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>111.7546635373317</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>71.22040037418674</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194347</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>26.01259675821802</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>68.52575990662621</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16230.45558071831</v>
+        <v>16230.4555807183</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
+        <v>20178.66499225014</v>
+      </c>
+      <c r="F2" t="n">
+        <v>20178.66499225016</v>
+      </c>
+      <c r="G2" t="n">
         <v>20178.66499225015</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>20178.66499225015</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20178.66499225016</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20178.66499225014</v>
       </c>
       <c r="I2" t="n">
         <v>20178.66499225015</v>
@@ -26338,7 +26338,7 @@
         <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
         <v>20526.04424660709</v>
@@ -26353,7 +26353,7 @@
         <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.0442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1308430.533701948</v>
       </c>
       <c r="C3" t="n">
-        <v>19312.30676833815</v>
+        <v>19312.30676833871</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>232219.4755097969</v>
+        <v>232219.4755097968</v>
       </c>
       <c r="K3" t="n">
         <v>4661.989000940706</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.0114859742004</v>
+        <v>572.0114859742001</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>24037.44323498545</v>
+        <v>24037.44323498544</v>
       </c>
       <c r="K4" t="n">
-        <v>24037.44323498539</v>
+        <v>24037.44323498549</v>
       </c>
       <c r="L4" t="n">
-        <v>24037.44323498541</v>
+        <v>24037.44323498544</v>
       </c>
       <c r="M4" t="n">
         <v>24037.44323498545</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="O4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="P4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498545</v>
       </c>
     </row>
     <row r="5">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1399282.453730708</v>
+        <v>-1399712.012597297</v>
       </c>
       <c r="C6" t="n">
-        <v>-200316.947187177</v>
+        <v>-200316.9471871775</v>
       </c>
       <c r="D6" t="n">
-        <v>-181004.6404188388</v>
+        <v>-181004.6404188387</v>
       </c>
       <c r="E6" t="n">
-        <v>-422402.9106109044</v>
+        <v>-422437.6485363395</v>
       </c>
       <c r="F6" t="n">
-        <v>-96990.44880354893</v>
+        <v>-97025.18672898466</v>
       </c>
       <c r="G6" t="n">
-        <v>-96990.44880354893</v>
+        <v>-97025.18672898466</v>
       </c>
       <c r="H6" t="n">
-        <v>-96990.4488035489</v>
+        <v>-97025.18672898466</v>
       </c>
       <c r="I6" t="n">
-        <v>-96990.44880354893</v>
+        <v>-97025.18672898463</v>
       </c>
       <c r="J6" t="n">
-        <v>-338894.9903520906</v>
+        <v>-338894.9903520904</v>
       </c>
       <c r="K6" t="n">
-        <v>-111337.5038432344</v>
+        <v>-111337.5038432345</v>
       </c>
       <c r="L6" t="n">
         <v>-106675.5148422937</v>
       </c>
       <c r="M6" t="n">
-        <v>-191730.5427778056</v>
+        <v>-191730.5427778055</v>
       </c>
       <c r="N6" t="n">
         <v>-106675.5148422937</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392018</v>
+        <v>1074.995080392017</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749609</v>
+        <v>813.2873580749606</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392018</v>
+        <v>1074.995080392017</v>
       </c>
       <c r="C3" t="n">
-        <v>14.78162020128048</v>
+        <v>14.78162020128093</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749609</v>
+        <v>813.2873580749606</v>
       </c>
       <c r="C4" t="n">
-        <v>18.11409732733148</v>
+        <v>18.11409732733193</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749609</v>
+        <v>813.2873580749606</v>
       </c>
       <c r="K4" t="n">
         <v>18.11409732733171</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749609</v>
+        <v>813.2873580749606</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733148</v>
+        <v>18.11409732733193</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>52.2520461687788</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>148.0087293592064</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>88.74236403083111</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>141.2829290802059</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.903547543832133</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>84.91464242633586</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>24.8187949548049</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>39.36632945608885</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.169834245014017e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.32158826288248</v>
+        <v>4.321588262882479</v>
       </c>
       <c r="H2" t="n">
-        <v>44.25846579724521</v>
+        <v>44.25846579724519</v>
       </c>
       <c r="I2" t="n">
-        <v>166.608031504777</v>
+        <v>166.6080315047769</v>
       </c>
       <c r="J2" t="n">
-        <v>366.7894018268222</v>
+        <v>366.7894018268221</v>
       </c>
       <c r="K2" t="n">
-        <v>549.7222329946377</v>
+        <v>549.7222329946376</v>
       </c>
       <c r="L2" t="n">
-        <v>681.9790397948275</v>
+        <v>681.9790397948274</v>
       </c>
       <c r="M2" t="n">
-        <v>758.8330850648638</v>
+        <v>758.8330850648636</v>
       </c>
       <c r="N2" t="n">
-        <v>771.1117977167786</v>
+        <v>771.1117977167785</v>
       </c>
       <c r="O2" t="n">
-        <v>728.1390044277409</v>
+        <v>728.1390044277408</v>
       </c>
       <c r="P2" t="n">
-        <v>621.4497941878296</v>
+        <v>621.4497941878295</v>
       </c>
       <c r="Q2" t="n">
-        <v>466.6829145233507</v>
+        <v>466.6829145233506</v>
       </c>
       <c r="R2" t="n">
-        <v>271.4659687182918</v>
+        <v>271.4659687182917</v>
       </c>
       <c r="S2" t="n">
-        <v>98.47819254043461</v>
+        <v>98.47819254043458</v>
       </c>
       <c r="T2" t="n">
         <v>18.91775262076806</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3457270610305983</v>
+        <v>0.3457270610305982</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.312253569145095</v>
+        <v>2.312253569145094</v>
       </c>
       <c r="H3" t="n">
         <v>22.33150157569078</v>
       </c>
       <c r="I3" t="n">
-        <v>79.61048472714471</v>
+        <v>79.61048472714469</v>
       </c>
       <c r="J3" t="n">
         <v>218.4572549690986</v>
       </c>
       <c r="K3" t="n">
-        <v>373.37824410182</v>
+        <v>373.3782441018199</v>
       </c>
       <c r="L3" t="n">
-        <v>502.05312693214</v>
+        <v>502.0531269321399</v>
       </c>
       <c r="M3" t="n">
-        <v>585.8723188136495</v>
+        <v>585.8723188136494</v>
       </c>
       <c r="N3" t="n">
-        <v>601.3786157751533</v>
+        <v>601.3786157751532</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1439445851488</v>
+        <v>550.1439445851487</v>
       </c>
       <c r="P3" t="n">
-        <v>441.5390170764874</v>
+        <v>441.5390170764873</v>
       </c>
       <c r="Q3" t="n">
         <v>295.1571398087668</v>
@@ -31154,10 +31154,10 @@
         <v>143.5625505474472</v>
       </c>
       <c r="S3" t="n">
-        <v>42.94909590056785</v>
+        <v>42.94909590056783</v>
       </c>
       <c r="T3" t="n">
-        <v>9.320004517738338</v>
+        <v>9.320004517738337</v>
       </c>
       <c r="U3" t="n">
         <v>0.1521219453384931</v>
@@ -31197,25 +31197,25 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.938515718739704</v>
+        <v>1.938515718739703</v>
       </c>
       <c r="H4" t="n">
         <v>17.23516702661301</v>
       </c>
       <c r="I4" t="n">
-        <v>58.29645452355402</v>
+        <v>58.296454523554</v>
       </c>
       <c r="J4" t="n">
         <v>137.053061314897</v>
       </c>
       <c r="K4" t="n">
-        <v>225.2202807772128</v>
+        <v>225.2202807772127</v>
       </c>
       <c r="L4" t="n">
-        <v>288.2044187660829</v>
+        <v>288.2044187660828</v>
       </c>
       <c r="M4" t="n">
-        <v>303.8711503475337</v>
+        <v>303.8711503475336</v>
       </c>
       <c r="N4" t="n">
         <v>296.6457735776859</v>
@@ -31224,22 +31224,22 @@
         <v>274.000385408772</v>
       </c>
       <c r="P4" t="n">
-        <v>234.4546647464819</v>
+        <v>234.4546647464818</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.3242571391947</v>
+        <v>162.3242571391946</v>
       </c>
       <c r="R4" t="n">
-        <v>87.1627158626052</v>
+        <v>87.16271586260518</v>
       </c>
       <c r="S4" t="n">
-        <v>33.78304211658192</v>
+        <v>33.78304211658191</v>
       </c>
       <c r="T4" t="n">
-        <v>8.282748980069641</v>
+        <v>8.282748980069639</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1057372210221658</v>
+        <v>0.1057372210221657</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,28 +31835,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>338.1920576279227</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,10 +32084,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107746</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32944,34 +32944,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,19 +33500,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,16 +33974,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>185.7434973001359</v>
+        <v>185.7434973001358</v>
       </c>
       <c r="K2" t="n">
-        <v>329.6323819496571</v>
+        <v>329.632381949657</v>
       </c>
       <c r="L2" t="n">
-        <v>446.2126248248402</v>
+        <v>446.2126248248401</v>
       </c>
       <c r="M2" t="n">
-        <v>528.4868518375911</v>
+        <v>528.4868518375908</v>
       </c>
       <c r="N2" t="n">
-        <v>541.6987341201877</v>
+        <v>541.6987341201875</v>
       </c>
       <c r="O2" t="n">
-        <v>498.0407930060542</v>
+        <v>498.0407930060541</v>
       </c>
       <c r="P2" t="n">
-        <v>390.2167984325601</v>
+        <v>390.21679843256</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.3772246489012</v>
+        <v>244.3772246489011</v>
       </c>
       <c r="R2" t="n">
-        <v>55.88043090415965</v>
+        <v>55.8804309041596</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>91.61962830243195</v>
+        <v>91.61962830243189</v>
       </c>
       <c r="K3" t="n">
-        <v>235.536805127461</v>
+        <v>235.5368051274609</v>
       </c>
       <c r="L3" t="n">
-        <v>363.4987471522658</v>
+        <v>363.4987471522657</v>
       </c>
       <c r="M3" t="n">
-        <v>443.7382848916312</v>
+        <v>443.7382848916311</v>
       </c>
       <c r="N3" t="n">
-        <v>470.03690369182</v>
+        <v>470.0369036918199</v>
       </c>
       <c r="O3" t="n">
-        <v>407.5477001407044</v>
+        <v>407.5477001407043</v>
       </c>
       <c r="P3" t="n">
-        <v>307.5646096621572</v>
+        <v>307.5646096621571</v>
       </c>
       <c r="Q3" t="n">
         <v>155.1753657227453</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.05763987550093</v>
+        <v>10.0576398755009</v>
       </c>
       <c r="K4" t="n">
-        <v>96.20702260667741</v>
+        <v>96.20702260667736</v>
       </c>
       <c r="L4" t="n">
-        <v>153.3197424848446</v>
+        <v>153.3197424848445</v>
       </c>
       <c r="M4" t="n">
         <v>164.9453663999286</v>
@@ -34869,13 +34869,13 @@
         <v>168.9602291124527</v>
       </c>
       <c r="O4" t="n">
-        <v>135.5438469569293</v>
+        <v>135.5438469569292</v>
       </c>
       <c r="P4" t="n">
-        <v>96.72666069733427</v>
+        <v>96.72666069733421</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.81925550974881</v>
+        <v>10.81925550974879</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>196.0580237059044</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096324</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,10 +35732,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663302</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295332</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295337</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,13 +37625,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
